--- a/biology/Zoologie/Hemidactylus_squamulatus/Hemidactylus_squamulatus.xlsx
+++ b/biology/Zoologie/Hemidactylus_squamulatus/Hemidactylus_squamulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus squamulatus est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus squamulatus est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Tanzanie, au Kenya, en Ouganda, au Soudan du Sud, au Soudan, en Éthiopie et en Somalie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Tanzanie, au Kenya, en Ouganda, au Soudan du Sud, au Soudan, en Éthiopie et en Somalie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (1 octobre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (1 octobre 2012) :
 Hemidactylus squamulatus barbouri Loveridge, 1942
 Hemidactylus squamulatus floweri Werner, 1908
 Hemidactylus squamulatus squamulatus Tornier, 1896</t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tornier, 1897 "1896" : Zur Faunistik Deutsch-Ost-Afrikas. 3. Reptilien und Amphibien. Archiv für Naturgeschichte, vol. 1 p. 63-66 (texte intégral).
 Werner, 1908 "1907" : Ergebnisse der mit Subvention aus der Erbschaft Treitl unternommenen zoologischen Forschungsreise Dr. Franz Werners nach dem agyptischen Sudan und Nord-Uganda. XII. Die Reptilien und Amphibien. Sitzungsberichte der Kaiserlichen Akademie der Wissenschaften, Mathematisch-Naturwissenschaftliche, vol. 116, p. 1823-1926.
